--- a/MARASIGAN, BIENVENIDO JR..xlsx
+++ b/MARASIGAN, BIENVENIDO JR..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="258">
   <si>
     <t>PERIOD</t>
   </si>
@@ -796,6 +796,18 @@
   </si>
   <si>
     <t>9/18,19/2023</t>
+  </si>
+  <si>
+    <t>9/25-29/2023</t>
+  </si>
+  <si>
+    <t>10/23-27/2023</t>
+  </si>
+  <si>
+    <t>10/12,13/2023</t>
+  </si>
+  <si>
+    <t>10/31 - 11/3/2023</t>
   </si>
 </sst>
 </file>
@@ -3205,7 +3217,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K419" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K422" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3583,12 +3595,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K419"/>
+  <dimension ref="A2:K422"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A394" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A391" activePane="bottomLeft"/>
       <selection activeCell="M8" sqref="M8"/>
-      <selection pane="bottomLeft" activeCell="K409" sqref="K409"/>
+      <selection pane="bottomLeft" activeCell="I412" sqref="I412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3751,7 +3763,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>6.8190000000000168</v>
+        <v>4.3190000000000168</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3761,7 +3773,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>-4.45799999999997</v>
+        <v>-10.95799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6251,7 +6263,7 @@
       <c r="D124" s="39"/>
       <c r="E124" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.8190000000000168</v>
+        <v>4.3190000000000168</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
@@ -6261,7 +6273,7 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>-4.45799999999997</v>
+        <v>-10.95799999999997</v>
       </c>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
@@ -12621,13 +12633,15 @@
       <c r="B405" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C405" s="13"/>
+      <c r="C405" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D405" s="39"/>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G405" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H405" s="39">
         <v>1</v>
@@ -12705,10 +12719,10 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B409" s="20"/>
+      <c r="A409" s="40"/>
+      <c r="B409" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="C409" s="13"/>
       <c r="D409" s="39"/>
       <c r="E409" s="9"/>
@@ -12717,34 +12731,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H409" s="39"/>
+      <c r="H409" s="39">
+        <v>5</v>
+      </c>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
-      <c r="K409" s="20"/>
+      <c r="K409" s="48" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B410" s="20"/>
-      <c r="C410" s="13"/>
-      <c r="D410" s="39"/>
+        <v>45230</v>
+      </c>
+      <c r="B410" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C410" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D410" s="39">
+        <v>5</v>
+      </c>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G410" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H410" s="39"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
-      <c r="K410" s="20"/>
+      <c r="K410" s="20" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B411" s="20"/>
+      <c r="A411" s="40"/>
+      <c r="B411" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C411" s="13"/>
       <c r="D411" s="39"/>
       <c r="E411" s="9"/>
@@ -12753,16 +12779,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H411" s="39"/>
+      <c r="H411" s="39">
+        <v>2</v>
+      </c>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
-      <c r="K411" s="20"/>
+      <c r="K411" s="20" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B412" s="20"/>
+      <c r="A412" s="40"/>
+      <c r="B412" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C412" s="13"/>
       <c r="D412" s="39"/>
       <c r="E412" s="9"/>
@@ -12771,14 +12801,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H412" s="39"/>
+      <c r="H412" s="39">
+        <v>2</v>
+      </c>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
-      <c r="K412" s="20"/>
+      <c r="K412" s="20" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45351</v>
+        <v>45260</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -12796,7 +12830,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -12814,7 +12848,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45412</v>
+        <v>45322</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -12832,7 +12866,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45443</v>
+        <v>45351</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -12850,7 +12884,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45473</v>
+        <v>45382</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -12868,7 +12902,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45504</v>
+        <v>45412</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -12886,7 +12920,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45535</v>
+        <v>45443</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -12901,6 +12935,60 @@
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B420" s="20"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="39"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="20"/>
+      <c r="G420" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H420" s="39"/>
+      <c r="I420" s="9"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="20"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B421" s="20"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="39"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="20"/>
+      <c r="G421" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H421" s="39"/>
+      <c r="I421" s="9"/>
+      <c r="J421" s="11"/>
+      <c r="K421" s="20"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B422" s="20"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="39"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="20"/>
+      <c r="G422" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H422" s="39"/>
+      <c r="I422" s="9"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13072,7 +13160,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(sheet1!E9,sheet1!I9)</f>
-        <v>2.3610000000000468</v>
+        <v>-6.6389999999999532</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
